--- a/Code/Results/Cases/Case_2_100/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_100/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.80824204266678</v>
+        <v>12.0211950682306</v>
       </c>
       <c r="C2">
-        <v>13.46465620579816</v>
+        <v>8.742730876259355</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.50275369067704</v>
+        <v>25.46734856096818</v>
       </c>
       <c r="F2">
-        <v>34.67975387964045</v>
+        <v>38.11783609816463</v>
       </c>
       <c r="G2">
-        <v>17.45121533671011</v>
+        <v>19.27444935623251</v>
       </c>
       <c r="H2">
-        <v>6.950932400577166</v>
+        <v>11.79075454630943</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.007353192633781</v>
+        <v>7.262919677881048</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.68379093799858</v>
+        <v>15.74979979977724</v>
       </c>
       <c r="O2">
-        <v>11.01872356268678</v>
+        <v>16.68235786430008</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.53766760185464</v>
+        <v>11.41421265077945</v>
       </c>
       <c r="C3">
-        <v>12.72997683164963</v>
+        <v>8.373186825234685</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.14312431431805</v>
+        <v>25.206462969729</v>
       </c>
       <c r="F3">
-        <v>32.94822419051585</v>
+        <v>37.87459206406198</v>
       </c>
       <c r="G3">
-        <v>16.70978523521353</v>
+        <v>19.2447527837198</v>
       </c>
       <c r="H3">
-        <v>6.978654982688008</v>
+        <v>11.83646508628791</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.050277863233352</v>
+        <v>7.28470662220512</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.68244955314656</v>
+        <v>15.76688132243443</v>
       </c>
       <c r="O3">
-        <v>10.89713507416575</v>
+        <v>16.74299550131385</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.71170508558382</v>
+        <v>11.02482872416699</v>
       </c>
       <c r="C4">
-        <v>12.25616343368998</v>
+        <v>8.136623512939469</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.28284622236933</v>
+        <v>25.05083115758928</v>
       </c>
       <c r="F4">
-        <v>31.87010591221885</v>
+        <v>37.73586233072821</v>
       </c>
       <c r="G4">
-        <v>16.26909856942993</v>
+        <v>19.23634801628086</v>
       </c>
       <c r="H4">
-        <v>7.002232111759888</v>
+        <v>11.86689144278723</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.078354882598767</v>
+        <v>7.298927512804203</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.68539144971835</v>
+        <v>15.7791339398228</v>
       </c>
       <c r="O4">
-        <v>10.83684824531051</v>
+        <v>16.78515260777696</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.36357948089444</v>
+        <v>10.86212375657088</v>
       </c>
       <c r="C5">
-        <v>12.05747280346628</v>
+        <v>8.037889095241226</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.92621234922468</v>
+        <v>24.98861913245534</v>
       </c>
       <c r="F5">
-        <v>31.42756971641339</v>
+        <v>37.68204921883589</v>
       </c>
       <c r="G5">
-        <v>16.09343928401941</v>
+        <v>19.23538984315835</v>
       </c>
       <c r="H5">
-        <v>7.013411964320445</v>
+        <v>11.87988293370328</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.090220569732251</v>
+        <v>7.304935119313762</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.68751810863582</v>
+        <v>15.78457159872191</v>
       </c>
       <c r="O5">
-        <v>10.81577348019091</v>
+        <v>16.80356481350271</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.30507630646072</v>
+        <v>10.83486900656227</v>
       </c>
       <c r="C6">
-        <v>12.0241452408749</v>
+        <v>8.021356510661741</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.86663879527149</v>
+        <v>24.97836373552698</v>
       </c>
       <c r="F6">
-        <v>31.35391237440684</v>
+        <v>37.67327923316896</v>
       </c>
       <c r="G6">
-        <v>16.06451590947611</v>
+        <v>19.23537951460641</v>
       </c>
       <c r="H6">
-        <v>7.015361113593992</v>
+        <v>11.8820759199695</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.092216231279754</v>
+        <v>7.305945521129178</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.68792672588014</v>
+        <v>15.78550139801746</v>
       </c>
       <c r="O6">
-        <v>10.81248120642309</v>
+        <v>16.8066964367401</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.70705687696196</v>
+        <v>11.02265049019133</v>
       </c>
       <c r="C7">
-        <v>12.25350637132887</v>
+        <v>8.135301254324657</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.27806057884901</v>
+        <v>25.04998716540023</v>
       </c>
       <c r="F7">
-        <v>31.86414983064871</v>
+        <v>37.73512551250455</v>
       </c>
       <c r="G7">
-        <v>16.26671332890751</v>
+        <v>19.23632511511948</v>
       </c>
       <c r="H7">
-        <v>7.002376621955094</v>
+        <v>11.86706425277203</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.078513201273815</v>
+        <v>7.299007672710832</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.68541639881196</v>
+        <v>15.77920547256249</v>
       </c>
       <c r="O7">
-        <v>10.83655005081022</v>
+        <v>16.78539593717825</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.37964561766041</v>
+        <v>11.81546556774948</v>
       </c>
       <c r="C8">
-        <v>13.2161088727624</v>
+        <v>8.617371168452594</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>24.03941683032534</v>
+        <v>25.37648956037273</v>
       </c>
       <c r="F8">
-        <v>34.08613550270655</v>
+        <v>38.03179172099779</v>
       </c>
       <c r="G8">
-        <v>17.19270687704218</v>
+        <v>19.26216830001613</v>
       </c>
       <c r="H8">
-        <v>6.959084105691559</v>
+        <v>11.80602519616887</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.021790917786738</v>
+        <v>7.270256929525271</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.68253531400161</v>
+        <v>15.75532384848838</v>
       </c>
       <c r="O8">
-        <v>10.97374906204644</v>
+        <v>16.70224011571007</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.29728714311783</v>
+        <v>13.23162323562787</v>
       </c>
       <c r="C9">
-        <v>14.92011390166483</v>
+        <v>9.482462999675791</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>27.28042069508316</v>
+        <v>26.04995072090492</v>
       </c>
       <c r="F9">
-        <v>38.30490362958552</v>
+        <v>38.69544994742939</v>
       </c>
       <c r="G9">
-        <v>19.11293183831144</v>
+        <v>19.39085554998015</v>
       </c>
       <c r="H9">
-        <v>6.929696684774073</v>
+        <v>11.70509324294769</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.92464910153446</v>
+        <v>7.220555024360956</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.70763934116049</v>
+        <v>15.72245191608583</v>
       </c>
       <c r="O9">
-        <v>11.36149741170194</v>
+        <v>16.5784966185082</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.22246259897345</v>
+        <v>14.18108771858903</v>
       </c>
       <c r="C10">
-        <v>16.05692466577053</v>
+        <v>10.06514070813247</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>29.52191684915548</v>
+        <v>26.56092595244839</v>
       </c>
       <c r="F10">
-        <v>41.30011742634972</v>
+        <v>39.22945101021862</v>
       </c>
       <c r="G10">
-        <v>20.57397352371333</v>
+        <v>19.53270773539456</v>
       </c>
       <c r="H10">
-        <v>6.946818404482006</v>
+        <v>11.64243401179867</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.862541529782772</v>
+        <v>7.188088746501712</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.74606775766614</v>
+        <v>15.70675641161005</v>
       </c>
       <c r="O10">
-        <v>11.72414427921943</v>
+        <v>16.51187517261591</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.05152267012953</v>
+        <v>14.59227502865557</v>
       </c>
       <c r="C11">
-        <v>16.54874972666053</v>
+        <v>10.31808671692883</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30.5104640620226</v>
+        <v>26.79601278632773</v>
       </c>
       <c r="F11">
-        <v>42.63768386426155</v>
+        <v>39.48162926530315</v>
       </c>
       <c r="G11">
-        <v>21.24732141067084</v>
+        <v>19.60737282778421</v>
       </c>
       <c r="H11">
-        <v>6.964076581389516</v>
+        <v>11.61643678749895</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3.836469801659752</v>
+        <v>7.174193877057254</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.76816360858024</v>
+        <v>15.70143986090769</v>
       </c>
       <c r="O11">
-        <v>11.90688958346221</v>
+        <v>16.48690521691458</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.35881054314467</v>
+        <v>14.74493738077927</v>
       </c>
       <c r="C12">
-        <v>16.73133806053258</v>
+        <v>10.41208581666839</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>30.88032402943955</v>
+        <v>26.88533938543111</v>
       </c>
       <c r="F12">
-        <v>43.14050326616954</v>
+        <v>39.57837935404896</v>
       </c>
       <c r="G12">
-        <v>21.50341560397577</v>
+        <v>19.63708630398533</v>
       </c>
       <c r="H12">
-        <v>6.972061366751982</v>
+        <v>11.60695380469098</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3.826927133288203</v>
+        <v>7.169057638048767</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.77721729744297</v>
+        <v>15.69968771098363</v>
       </c>
       <c r="O12">
-        <v>11.97870218197898</v>
+        <v>16.4782218125834</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.29292578824095</v>
+        <v>14.71219515105894</v>
       </c>
       <c r="C13">
-        <v>16.69217707974751</v>
+        <v>10.39192148404883</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>30.80086696621987</v>
+        <v>26.86608896836852</v>
       </c>
       <c r="F13">
-        <v>43.03237685629788</v>
+        <v>39.55748787814323</v>
       </c>
       <c r="G13">
-        <v>21.44821349785623</v>
+        <v>19.63062328523638</v>
       </c>
       <c r="H13">
-        <v>6.970275836488883</v>
+        <v>11.6089800344227</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.828967353879396</v>
+        <v>7.17015824386609</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.77523652276884</v>
+        <v>15.70005347260853</v>
       </c>
       <c r="O13">
-        <v>11.96311915681883</v>
+        <v>16.48005752348903</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.07693653655784</v>
+        <v>14.60489601126721</v>
       </c>
       <c r="C14">
-        <v>16.56384467938475</v>
+        <v>10.32585609955413</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>30.54098234243163</v>
+        <v>26.80335607187305</v>
       </c>
       <c r="F14">
-        <v>42.67912531190532</v>
+        <v>39.48956423084078</v>
       </c>
       <c r="G14">
-        <v>21.26836881303736</v>
+        <v>19.60978864239323</v>
       </c>
       <c r="H14">
-        <v>6.964703941806433</v>
+        <v>11.61564936329994</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.835678003676918</v>
+        <v>7.173768802929817</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.76889457022452</v>
+        <v>15.70129048380144</v>
       </c>
       <c r="O14">
-        <v>11.91274504121309</v>
+        <v>16.48617532616156</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.94377147628708</v>
+        <v>14.53877389232009</v>
       </c>
       <c r="C15">
-        <v>16.4847611185067</v>
+        <v>10.28515537226978</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>30.38121253430464</v>
+        <v>26.76496775614908</v>
       </c>
       <c r="F15">
-        <v>42.46226670183074</v>
+        <v>39.44812026823086</v>
       </c>
       <c r="G15">
-        <v>21.15835006271215</v>
+        <v>19.5972136751978</v>
       </c>
       <c r="H15">
-        <v>6.96148236703741</v>
+        <v>11.61978164450803</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3.839831981858895</v>
+        <v>7.175996703759706</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.76510002781475</v>
+        <v>15.70208216029551</v>
       </c>
       <c r="O15">
-        <v>11.88223092762598</v>
+        <v>16.49002335376901</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.16734643393148</v>
+        <v>14.15379273074599</v>
       </c>
       <c r="C16">
-        <v>16.02427180876397</v>
+        <v>10.048362368739</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>29.45668508585307</v>
+        <v>26.54560916718747</v>
       </c>
       <c r="F16">
-        <v>41.21219174030227</v>
+        <v>39.21315046212894</v>
       </c>
       <c r="G16">
-        <v>20.53013102481091</v>
+        <v>19.52803069645059</v>
       </c>
       <c r="H16">
-        <v>6.945888595503154</v>
+        <v>11.64418353102597</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3.864290639185316</v>
+        <v>7.189014377475765</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.74471854532302</v>
+        <v>15.70714046002784</v>
       </c>
       <c r="O16">
-        <v>11.71256403806065</v>
+        <v>16.51361481906547</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.67911020112185</v>
+        <v>13.91226001842344</v>
       </c>
       <c r="C17">
-        <v>15.73527849126045</v>
+        <v>9.899960674053238</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>28.88152665825829</v>
+        <v>26.41166254200181</v>
       </c>
       <c r="F17">
-        <v>40.43882148341972</v>
+        <v>39.07132241996121</v>
       </c>
       <c r="G17">
-        <v>20.14685775213596</v>
+        <v>19.48817356922143</v>
       </c>
       <c r="H17">
-        <v>6.938810114182611</v>
+        <v>11.65979614914463</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3.879865083879183</v>
+        <v>7.197224013884101</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.7334132096071</v>
+        <v>15.71070981906731</v>
       </c>
       <c r="O17">
-        <v>11.61307376011483</v>
+        <v>16.52945773524208</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.39388905559932</v>
+        <v>13.77138866079081</v>
       </c>
       <c r="C18">
-        <v>15.56667445789717</v>
+        <v>9.813465546307592</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>28.54777869601748</v>
+        <v>26.33487314805448</v>
       </c>
       <c r="F18">
-        <v>39.99164967765506</v>
+        <v>38.99062285173898</v>
       </c>
       <c r="G18">
-        <v>19.9272351951711</v>
+        <v>19.46620416989439</v>
       </c>
       <c r="H18">
-        <v>6.935624800199338</v>
+        <v>11.66901199620641</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.889027321710115</v>
+        <v>7.20202827903908</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.72734362628577</v>
+        <v>15.71293451615005</v>
       </c>
       <c r="O18">
-        <v>11.55752010834664</v>
+        <v>16.53907218904782</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.29656060058607</v>
+        <v>13.72335962574839</v>
       </c>
       <c r="C19">
-        <v>15.50917942582638</v>
+        <v>9.783985711399426</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>28.43427478041507</v>
+        <v>26.30891936553661</v>
       </c>
       <c r="F19">
-        <v>39.83984566692384</v>
+        <v>38.96345211028272</v>
       </c>
       <c r="G19">
-        <v>19.85302159515743</v>
+        <v>19.45893028152374</v>
       </c>
       <c r="H19">
-        <v>6.934695811664898</v>
+        <v>11.67217280212761</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.892164101475953</v>
+        <v>7.203669063800181</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.72536223879892</v>
+        <v>15.71371728194332</v>
       </c>
       <c r="O19">
-        <v>11.53899567940669</v>
+        <v>16.54241355009137</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.7315388227754</v>
+        <v>13.93817372007882</v>
       </c>
       <c r="C20">
-        <v>15.76628906735499</v>
+        <v>9.915876446830826</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>28.94305691024505</v>
+        <v>26.42589573574595</v>
       </c>
       <c r="F20">
-        <v>40.52139220241069</v>
+        <v>39.08633011674699</v>
       </c>
       <c r="G20">
-        <v>20.1875734964146</v>
+        <v>19.49231767040139</v>
       </c>
       <c r="H20">
-        <v>6.939471292774398</v>
+        <v>11.65810973816327</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3.878185907079308</v>
+        <v>7.196341568316862</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.73457170921786</v>
+        <v>15.7103120925667</v>
       </c>
       <c r="O20">
-        <v>11.62349134953067</v>
+        <v>16.52771923598825</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.14055805418744</v>
+        <v>14.63649547246876</v>
       </c>
       <c r="C21">
-        <v>16.60163827970777</v>
+        <v>10.34530989028385</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30.61743819072049</v>
+        <v>26.82177458544584</v>
       </c>
       <c r="F21">
-        <v>42.78298433310822</v>
+        <v>39.5094815904118</v>
       </c>
       <c r="G21">
-        <v>21.32116430199714</v>
+        <v>19.6158693796475</v>
       </c>
       <c r="H21">
-        <v>6.966300504112008</v>
+        <v>11.61368059698651</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3.833697823518162</v>
+        <v>7.172704891690975</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.77073853989783</v>
+        <v>15.70092006602255</v>
       </c>
       <c r="O21">
-        <v>11.92746988927644</v>
+        <v>16.48435738599849</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.02264958146613</v>
+        <v>15.07511688607419</v>
       </c>
       <c r="C22">
-        <v>17.12628284309774</v>
+        <v>10.61554351141632</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>31.68565287109152</v>
+        <v>27.08224339587867</v>
       </c>
       <c r="F22">
-        <v>44.23957846789283</v>
+        <v>39.79331765297349</v>
       </c>
       <c r="G22">
-        <v>22.09684908490758</v>
+        <v>19.70499657657295</v>
       </c>
       <c r="H22">
-        <v>6.992324311398765</v>
+        <v>11.58675179757873</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3.806555484248148</v>
+        <v>7.157988038128115</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.79838790512091</v>
+        <v>15.69630326049406</v>
       </c>
       <c r="O22">
-        <v>12.14137530196302</v>
+        <v>16.46052072994604</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.5553888831215</v>
+        <v>14.84266073509987</v>
       </c>
       <c r="C23">
-        <v>16.84822165807374</v>
+        <v>10.47228133973293</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>31.11790352314987</v>
+        <v>26.94309200682242</v>
       </c>
       <c r="F23">
-        <v>43.46414494356278</v>
+        <v>39.64118833834262</v>
       </c>
       <c r="G23">
-        <v>21.66906817730755</v>
+        <v>19.65666799473271</v>
       </c>
       <c r="H23">
-        <v>6.977629155211605</v>
+        <v>11.60093093090456</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3.820859062902781</v>
+        <v>7.165775890973163</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.78325610270979</v>
+        <v>15.69862849751892</v>
       </c>
       <c r="O23">
-        <v>12.02579984562498</v>
+        <v>16.47282929544551</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.70784994980709</v>
+        <v>13.92646439428854</v>
       </c>
       <c r="C24">
-        <v>15.75227684055292</v>
+        <v>9.908684588762904</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>28.91524868114254</v>
+        <v>26.41946022304846</v>
       </c>
       <c r="F24">
-        <v>40.4840699176813</v>
+        <v>39.07954251696066</v>
       </c>
       <c r="G24">
-        <v>20.16916363480032</v>
+        <v>19.49044117731109</v>
       </c>
       <c r="H24">
-        <v>6.939169626502979</v>
+        <v>11.65887141721755</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3.878944415381046</v>
+        <v>7.196740258927099</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.73404661390277</v>
+        <v>15.71049136691102</v>
       </c>
       <c r="O24">
-        <v>11.61877643893321</v>
+        <v>16.528503635209</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.54655013306368</v>
+        <v>12.86410103496968</v>
       </c>
       <c r="C25">
-        <v>14.47918913367569</v>
+        <v>9.257475907768933</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>26.42769991579945</v>
+        <v>25.86462150431095</v>
       </c>
       <c r="F25">
-        <v>37.18084097611082</v>
+        <v>38.5074917367992</v>
       </c>
       <c r="G25">
-        <v>18.58376444441155</v>
+        <v>19.34770062484287</v>
       </c>
       <c r="H25">
-        <v>6.931205322193254</v>
+        <v>11.73038330051161</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.949355136079906</v>
+        <v>7.23328800592498</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.69742954091197</v>
+        <v>15.72985565679904</v>
       </c>
       <c r="O25">
-        <v>11.24328264281675</v>
+        <v>16.60772849466944</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_100/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_100/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.0211950682306</v>
+        <v>19.80824204266673</v>
       </c>
       <c r="C2">
-        <v>8.742730876259355</v>
+        <v>13.4646562057981</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.46734856096818</v>
+        <v>24.50275369067702</v>
       </c>
       <c r="F2">
-        <v>38.11783609816463</v>
+        <v>34.67975387964049</v>
       </c>
       <c r="G2">
-        <v>19.27444935623251</v>
+        <v>17.45121533671015</v>
       </c>
       <c r="H2">
-        <v>11.79075454630943</v>
+        <v>6.950932400577166</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.262919677881048</v>
+        <v>4.007353192633748</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.74979979977724</v>
+        <v>11.68379093799857</v>
       </c>
       <c r="O2">
-        <v>16.68235786430008</v>
+        <v>11.01872356268684</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.41421265077945</v>
+        <v>18.53766760185466</v>
       </c>
       <c r="C3">
-        <v>8.373186825234685</v>
+        <v>12.72997683164965</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25.206462969729</v>
+        <v>23.14312431431804</v>
       </c>
       <c r="F3">
-        <v>37.87459206406198</v>
+        <v>32.94822419051585</v>
       </c>
       <c r="G3">
-        <v>19.2447527837198</v>
+        <v>16.70978523521349</v>
       </c>
       <c r="H3">
-        <v>11.83646508628791</v>
+        <v>6.978654982687971</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.28470662220512</v>
+        <v>4.05027786323326</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.76688132243443</v>
+        <v>11.68244955314653</v>
       </c>
       <c r="O3">
-        <v>16.74299550131385</v>
+        <v>10.89713507416569</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.02482872416699</v>
+        <v>17.71170508558377</v>
       </c>
       <c r="C4">
-        <v>8.136623512939469</v>
+        <v>12.25616343369</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.05083115758928</v>
+        <v>22.28284622236934</v>
       </c>
       <c r="F4">
-        <v>37.73586233072821</v>
+        <v>31.87010591221888</v>
       </c>
       <c r="G4">
-        <v>19.23634801628086</v>
+        <v>16.26909856942999</v>
       </c>
       <c r="H4">
-        <v>11.86689144278723</v>
+        <v>7.00223211175994</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.298927512804203</v>
+        <v>4.078354882598709</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.7791339398228</v>
+        <v>11.68539144971835</v>
       </c>
       <c r="O4">
-        <v>16.78515260777696</v>
+        <v>10.83684824531057</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.86212375657088</v>
+        <v>17.36357948089439</v>
       </c>
       <c r="C5">
-        <v>8.037889095241226</v>
+        <v>12.0574728034663</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24.98861913245534</v>
+        <v>21.92621234922471</v>
       </c>
       <c r="F5">
-        <v>37.68204921883589</v>
+        <v>31.42756971641346</v>
       </c>
       <c r="G5">
-        <v>19.23538984315835</v>
+        <v>16.09343928401951</v>
       </c>
       <c r="H5">
-        <v>11.87988293370328</v>
+        <v>7.013411964320499</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.304935119313762</v>
+        <v>4.090220569732311</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.78457159872191</v>
+        <v>11.68751810863585</v>
       </c>
       <c r="O5">
-        <v>16.80356481350271</v>
+        <v>10.81577348019097</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.83486900656227</v>
+        <v>17.30507630646073</v>
       </c>
       <c r="C6">
-        <v>8.021356510661741</v>
+        <v>12.02414524087479</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24.97836373552698</v>
+        <v>21.86663879527156</v>
       </c>
       <c r="F6">
-        <v>37.67327923316896</v>
+        <v>31.35391237440686</v>
       </c>
       <c r="G6">
-        <v>19.23537951460641</v>
+        <v>16.06451590947593</v>
       </c>
       <c r="H6">
-        <v>11.8820759199695</v>
+        <v>7.01536111359392</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.305945521129178</v>
+        <v>4.092216231279721</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.78550139801746</v>
+        <v>11.68792672588009</v>
       </c>
       <c r="O6">
-        <v>16.8066964367401</v>
+        <v>10.812481206423</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.02265049019133</v>
+        <v>17.70705687696205</v>
       </c>
       <c r="C7">
-        <v>8.135301254324657</v>
+        <v>12.25350637132884</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.04998716540023</v>
+        <v>22.27806057884908</v>
       </c>
       <c r="F7">
-        <v>37.73512551250455</v>
+        <v>31.86414983064878</v>
       </c>
       <c r="G7">
-        <v>19.23632511511948</v>
+        <v>16.26671332890747</v>
       </c>
       <c r="H7">
-        <v>11.86706425277203</v>
+        <v>7.002376621954978</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.299007672710832</v>
+        <v>4.078513201273752</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.77920547256249</v>
+        <v>11.68541639881196</v>
       </c>
       <c r="O7">
-        <v>16.78539593717825</v>
+        <v>10.83655005081019</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.81546556774948</v>
+        <v>19.37964561766037</v>
       </c>
       <c r="C8">
-        <v>8.617371168452594</v>
+        <v>13.21610887276236</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>25.37648956037273</v>
+        <v>24.03941683032533</v>
       </c>
       <c r="F8">
-        <v>38.03179172099779</v>
+        <v>34.08613550270659</v>
       </c>
       <c r="G8">
-        <v>19.26216830001613</v>
+        <v>17.1927068770423</v>
       </c>
       <c r="H8">
-        <v>11.80602519616887</v>
+        <v>6.959084105691574</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.270256929525271</v>
+        <v>4.021790917786674</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.75532384848838</v>
+        <v>11.68253531400161</v>
       </c>
       <c r="O8">
-        <v>16.70224011571007</v>
+        <v>10.97374906204649</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.23162323562787</v>
+        <v>22.29728714311783</v>
       </c>
       <c r="C9">
-        <v>9.482462999675791</v>
+        <v>14.92011390166477</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.04995072090492</v>
+        <v>27.28042069508318</v>
       </c>
       <c r="F9">
-        <v>38.69544994742939</v>
+        <v>38.30490362958553</v>
       </c>
       <c r="G9">
-        <v>19.39085554998015</v>
+        <v>19.11293183831145</v>
       </c>
       <c r="H9">
-        <v>11.70509324294769</v>
+        <v>6.929696684774073</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.220555024360956</v>
+        <v>3.924649101534519</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.72245191608583</v>
+        <v>11.70763934116043</v>
       </c>
       <c r="O9">
-        <v>16.5784966185082</v>
+        <v>11.36149741170195</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.18108771858903</v>
+        <v>24.22246259897341</v>
       </c>
       <c r="C10">
-        <v>10.06514070813247</v>
+        <v>16.05692466577069</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.56092595244839</v>
+        <v>29.5219168491555</v>
       </c>
       <c r="F10">
-        <v>39.22945101021862</v>
+        <v>41.30011742634972</v>
       </c>
       <c r="G10">
-        <v>19.53270773539456</v>
+        <v>20.57397352371332</v>
       </c>
       <c r="H10">
-        <v>11.64243401179867</v>
+        <v>6.946818404482006</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.188088746501712</v>
+        <v>3.862541529782747</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.70675641161005</v>
+        <v>11.74606775766617</v>
       </c>
       <c r="O10">
-        <v>16.51187517261591</v>
+        <v>11.72414427921943</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.59227502865557</v>
+        <v>25.05152267012952</v>
       </c>
       <c r="C11">
-        <v>10.31808671692883</v>
+        <v>16.5487497266605</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26.79601278632773</v>
+        <v>30.51046406202261</v>
       </c>
       <c r="F11">
-        <v>39.48162926530315</v>
+        <v>42.6376838642615</v>
       </c>
       <c r="G11">
-        <v>19.60737282778421</v>
+        <v>21.24732141067082</v>
       </c>
       <c r="H11">
-        <v>11.61643678749895</v>
+        <v>6.964076581389551</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.174193877057254</v>
+        <v>3.836469801659783</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.70143986090769</v>
+        <v>11.76816360858025</v>
       </c>
       <c r="O11">
-        <v>16.48690521691458</v>
+        <v>11.90688958346222</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.74493738077927</v>
+        <v>25.3588105431446</v>
       </c>
       <c r="C12">
-        <v>10.41208581666839</v>
+        <v>16.73133806053253</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>26.88533938543111</v>
+        <v>30.88032402943955</v>
       </c>
       <c r="F12">
-        <v>39.57837935404896</v>
+        <v>43.14050326616952</v>
       </c>
       <c r="G12">
-        <v>19.63708630398533</v>
+        <v>21.50341560397575</v>
       </c>
       <c r="H12">
-        <v>11.60695380469098</v>
+        <v>6.972061366751982</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.169057638048767</v>
+        <v>3.826927133288236</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.69968771098363</v>
+        <v>11.77721729744292</v>
       </c>
       <c r="O12">
-        <v>16.4782218125834</v>
+        <v>11.978702181979</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.71219515105894</v>
+        <v>25.2929257882409</v>
       </c>
       <c r="C13">
-        <v>10.39192148404883</v>
+        <v>16.69217707974751</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>26.86608896836852</v>
+        <v>30.80086696621989</v>
       </c>
       <c r="F13">
-        <v>39.55748787814323</v>
+        <v>43.03237685629786</v>
       </c>
       <c r="G13">
-        <v>19.63062328523638</v>
+        <v>21.4482134978562</v>
       </c>
       <c r="H13">
-        <v>11.6089800344227</v>
+        <v>6.970275836488835</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.17015824386609</v>
+        <v>3.828967353879373</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.70005347260853</v>
+        <v>11.77523652276882</v>
       </c>
       <c r="O13">
-        <v>16.48005752348903</v>
+        <v>11.96311915681881</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.60489601126721</v>
+        <v>25.07693653655785</v>
       </c>
       <c r="C14">
-        <v>10.32585609955413</v>
+        <v>16.5638446793847</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>26.80335607187305</v>
+        <v>30.54098234243158</v>
       </c>
       <c r="F14">
-        <v>39.48956423084078</v>
+        <v>42.6791253119053</v>
       </c>
       <c r="G14">
-        <v>19.60978864239323</v>
+        <v>21.26836881303731</v>
       </c>
       <c r="H14">
-        <v>11.61564936329994</v>
+        <v>6.964703941806396</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.173768802929817</v>
+        <v>3.835678003676853</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.70129048380144</v>
+        <v>11.7688945702245</v>
       </c>
       <c r="O14">
-        <v>16.48617532616156</v>
+        <v>11.91274504121306</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.53877389232009</v>
+        <v>24.94377147628706</v>
       </c>
       <c r="C15">
-        <v>10.28515537226978</v>
+        <v>16.48476111850676</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>26.76496775614908</v>
+        <v>30.38121253430465</v>
       </c>
       <c r="F15">
-        <v>39.44812026823086</v>
+        <v>42.46226670183073</v>
       </c>
       <c r="G15">
-        <v>19.5972136751978</v>
+        <v>21.15835006271213</v>
       </c>
       <c r="H15">
-        <v>11.61978164450803</v>
+        <v>6.96148236703741</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.175996703759706</v>
+        <v>3.839831981858897</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.70208216029551</v>
+        <v>11.76510002781478</v>
       </c>
       <c r="O15">
-        <v>16.49002335376901</v>
+        <v>11.88223092762598</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.15379273074599</v>
+        <v>24.1673464339315</v>
       </c>
       <c r="C16">
-        <v>10.048362368739</v>
+        <v>16.02427180876398</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>26.54560916718747</v>
+        <v>29.45668508585308</v>
       </c>
       <c r="F16">
-        <v>39.21315046212894</v>
+        <v>41.21219174030232</v>
       </c>
       <c r="G16">
-        <v>19.52803069645059</v>
+        <v>20.5301310248109</v>
       </c>
       <c r="H16">
-        <v>11.64418353102597</v>
+        <v>6.945888595503119</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.189014377475765</v>
+        <v>3.864290639185229</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.70714046002784</v>
+        <v>11.74471854532296</v>
       </c>
       <c r="O16">
-        <v>16.51361481906547</v>
+        <v>11.71256403806057</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.91226001842344</v>
+        <v>23.67911020112188</v>
       </c>
       <c r="C17">
-        <v>9.899960674053238</v>
+        <v>15.73527849126038</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>26.41166254200181</v>
+        <v>28.88152665825832</v>
       </c>
       <c r="F17">
-        <v>39.07132241996121</v>
+        <v>40.43882148341968</v>
       </c>
       <c r="G17">
-        <v>19.48817356922143</v>
+        <v>20.14685775213587</v>
       </c>
       <c r="H17">
-        <v>11.65979614914463</v>
+        <v>6.938810114182605</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.197224013884101</v>
+        <v>3.879865083879187</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.71070981906731</v>
+        <v>11.73341320960708</v>
       </c>
       <c r="O17">
-        <v>16.52945773524208</v>
+        <v>11.61307376011478</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.77138866079081</v>
+        <v>23.39388905559924</v>
       </c>
       <c r="C18">
-        <v>9.813465546307592</v>
+        <v>15.56667445789723</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>26.33487314805448</v>
+        <v>28.54777869601745</v>
       </c>
       <c r="F18">
-        <v>38.99062285173898</v>
+        <v>39.99164967765508</v>
       </c>
       <c r="G18">
-        <v>19.46620416989439</v>
+        <v>19.92723519517113</v>
       </c>
       <c r="H18">
-        <v>11.66901199620641</v>
+        <v>6.935624800199479</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.20202827903908</v>
+        <v>3.889027321710112</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.71293451615005</v>
+        <v>11.72734362628587</v>
       </c>
       <c r="O18">
-        <v>16.53907218904782</v>
+        <v>11.55752010834674</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.72335962574839</v>
+        <v>23.29656060058595</v>
       </c>
       <c r="C19">
-        <v>9.783985711399426</v>
+        <v>15.50917942582635</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>26.30891936553661</v>
+        <v>28.43427478041506</v>
       </c>
       <c r="F19">
-        <v>38.96345211028272</v>
+        <v>39.83984566692381</v>
       </c>
       <c r="G19">
-        <v>19.45893028152374</v>
+        <v>19.85302159515741</v>
       </c>
       <c r="H19">
-        <v>11.67217280212761</v>
+        <v>6.934695811664993</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.203669063800181</v>
+        <v>3.892164101475953</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.71371728194332</v>
+        <v>11.72536223879891</v>
       </c>
       <c r="O19">
-        <v>16.54241355009137</v>
+        <v>11.53899567940675</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.93817372007882</v>
+        <v>23.73153882277538</v>
       </c>
       <c r="C20">
-        <v>9.915876446830826</v>
+        <v>15.7662890673551</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>26.42589573574595</v>
+        <v>28.94305691024507</v>
       </c>
       <c r="F20">
-        <v>39.08633011674699</v>
+        <v>40.5213922024107</v>
       </c>
       <c r="G20">
-        <v>19.49231767040139</v>
+        <v>20.18757349641459</v>
       </c>
       <c r="H20">
-        <v>11.65810973816327</v>
+        <v>6.93947129277437</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.196341568316862</v>
+        <v>3.87818590707928</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.7103120925667</v>
+        <v>11.7345717092178</v>
       </c>
       <c r="O20">
-        <v>16.52771923598825</v>
+        <v>11.62349134953063</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.63649547246876</v>
+        <v>25.14055805418739</v>
       </c>
       <c r="C21">
-        <v>10.34530989028385</v>
+        <v>16.60163827970791</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>26.82177458544584</v>
+        <v>30.61743819072048</v>
       </c>
       <c r="F21">
-        <v>39.5094815904118</v>
+        <v>42.78298433310824</v>
       </c>
       <c r="G21">
-        <v>19.6158693796475</v>
+        <v>21.32116430199716</v>
       </c>
       <c r="H21">
-        <v>11.61368059698651</v>
+        <v>6.966300504112026</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.172704891690975</v>
+        <v>3.83369782351813</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.70092006602255</v>
+        <v>11.77073853989782</v>
       </c>
       <c r="O21">
-        <v>16.48435738599849</v>
+        <v>11.92746988927648</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.07511688607419</v>
+        <v>26.02264958146612</v>
       </c>
       <c r="C22">
-        <v>10.61554351141632</v>
+        <v>17.12628284309772</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>27.08224339587867</v>
+        <v>31.68565287109152</v>
       </c>
       <c r="F22">
-        <v>39.79331765297349</v>
+        <v>44.23957846789283</v>
       </c>
       <c r="G22">
-        <v>19.70499657657295</v>
+        <v>22.0968490849075</v>
       </c>
       <c r="H22">
-        <v>11.58675179757873</v>
+        <v>6.992324311398855</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.157988038128115</v>
+        <v>3.806555484248201</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.69630326049406</v>
+        <v>11.79838790512099</v>
       </c>
       <c r="O22">
-        <v>16.46052072994604</v>
+        <v>12.14137530196307</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.84266073509987</v>
+        <v>25.55538888312154</v>
       </c>
       <c r="C23">
-        <v>10.47228133973293</v>
+        <v>16.84822165807379</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>26.94309200682242</v>
+        <v>31.11790352314986</v>
       </c>
       <c r="F23">
-        <v>39.64118833834262</v>
+        <v>43.46414494356278</v>
       </c>
       <c r="G23">
-        <v>19.65666799473271</v>
+        <v>21.66906817730753</v>
       </c>
       <c r="H23">
-        <v>11.60093093090456</v>
+        <v>6.977629155211599</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.165775890973163</v>
+        <v>3.820859062902779</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.69862849751892</v>
+        <v>11.78325610270979</v>
       </c>
       <c r="O23">
-        <v>16.47282929544551</v>
+        <v>12.02579984562496</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.92646439428854</v>
+        <v>23.70784994980705</v>
       </c>
       <c r="C24">
-        <v>9.908684588762904</v>
+        <v>15.75227684055305</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>26.41946022304846</v>
+        <v>28.91524868114255</v>
       </c>
       <c r="F24">
-        <v>39.07954251696066</v>
+        <v>40.48406991768132</v>
       </c>
       <c r="G24">
-        <v>19.49044117731109</v>
+        <v>20.16916363480033</v>
       </c>
       <c r="H24">
-        <v>11.65887141721755</v>
+        <v>6.939169626502979</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.196740258927099</v>
+        <v>3.878944415381044</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.71049136691102</v>
+        <v>11.73404661390282</v>
       </c>
       <c r="O24">
-        <v>16.528503635209</v>
+        <v>11.61877643893324</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.86410103496968</v>
+        <v>21.54655013306366</v>
       </c>
       <c r="C25">
-        <v>9.257475907768933</v>
+        <v>14.47918913367581</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.86462150431095</v>
+        <v>26.42769991579944</v>
       </c>
       <c r="F25">
-        <v>38.5074917367992</v>
+        <v>37.18084097611082</v>
       </c>
       <c r="G25">
-        <v>19.34770062484287</v>
+        <v>18.5837644444116</v>
       </c>
       <c r="H25">
-        <v>11.73038330051161</v>
+        <v>6.931205322193159</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.23328800592498</v>
+        <v>3.949355136079972</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.72985565679904</v>
+        <v>11.69742954091193</v>
       </c>
       <c r="O25">
-        <v>16.60772849466944</v>
+        <v>11.24328264281675</v>
       </c>
     </row>
   </sheetData>
